--- a/数据整理/stocks/A股/上证主板/603309-维力医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/603309-维力医疗.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -583,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,17 +595,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -614,13 +635,217 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4519</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3073</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.62</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603309-维力医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/603309-维力医疗.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -792,7 +793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,17 +804,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -823,14 +844,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.02</v>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4896</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -839,13 +882,195 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1798</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1450</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.62</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603309-维力医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/603309-维力医疗.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,129 +453,81 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010654</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>天弘医药创新混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.75</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.09</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4679</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010655</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>天弘医药创新混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.09</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1505</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -646,26 +598,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.86</t>
+          <t>12.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.22</t>
+          <t>90.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4519</t>
+          <t>0.4896</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -684,26 +636,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.63</t>
+          <t>88.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3073</t>
+          <t>0.1798</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -722,26 +674,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.22</t>
+          <t>90.26</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1341</t>
+          <t>0.1450</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -760,26 +712,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>3.36</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.63</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1270</t>
+          <t>0.0400</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -854,26 +806,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.09</t>
+          <t>11.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.26</t>
+          <t>87.22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4896</t>
+          <t>0.4519</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -892,26 +844,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>8.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.96</t>
+          <t>86.63</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1798</t>
+          <t>0.3073</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -930,26 +882,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.26</t>
+          <t>87.22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1450</t>
+          <t>0.1341</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -968,26 +920,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.96</t>
+          <t>86.63</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0400</t>
+          <t>0.1270</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1001,80 +953,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.85</v>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4679</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.62</v>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603309-维力医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/603309-维力医疗.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0.85</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1.02</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -537,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,26 +615,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.09</t>
+          <t>7.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.26</t>
+          <t>82.96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4896</t>
+          <t>0.4338</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -626,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010054</t>
+          <t>000780</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家健康产业混合A</t>
+          <t>鹏华医疗保健股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.96</t>
+          <t>81.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1798</t>
+          <t>0.2363</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -664,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010655</t>
+          <t>010054</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天弘医药创新混合C</t>
+          <t>万家健康产业混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.26</t>
+          <t>86.96</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1450</t>
+          <t>0.2038</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -702,36 +719,642 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1925</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>010055</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>万家健康产业混合C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.96</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0400</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005293</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺德新旺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013154</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014758</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015390</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -806,26 +1429,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.86</t>
+          <t>12.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.22</t>
+          <t>90.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4519</t>
+          <t>0.4896</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -844,26 +1467,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.63</t>
+          <t>88.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3073</t>
+          <t>0.1798</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -882,26 +1505,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.22</t>
+          <t>90.26</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1341</t>
+          <t>0.1450</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -920,26 +1543,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>3.36</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.63</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1270</t>
+          <t>0.0400</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -948,6 +1571,214 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4519</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3073</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603309-维力医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/603309-维力医疗.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>1.79</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>0.85</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1.02</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -549,6 +566,1010 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4861</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2169</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1900</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1666</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005293</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺德新旺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014708</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘臻选健康混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>33.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>31.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014709</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘臻选健康混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>31.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013154</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>33.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>016060</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015390</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1355,214 +2376,6 @@
       </c>
       <c r="H21" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010654</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>天弘医药创新混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.09</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4896</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010054</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>万家健康产业混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.96</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1798</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010655</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>天弘医药创新混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1450</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010055</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>万家健康产业混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.96</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0400</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1637,26 +2450,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.86</t>
+          <t>12.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.22</t>
+          <t>90.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4519</t>
+          <t>0.4896</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1675,26 +2488,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.63</t>
+          <t>88.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3073</t>
+          <t>0.1798</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1713,26 +2526,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.22</t>
+          <t>90.26</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1341</t>
+          <t>0.1450</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1751,26 +2564,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>3.36</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.63</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1270</t>
+          <t>0.0400</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1779,6 +2592,214 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4519</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3073</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
